--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9B47A4-2744-4B55-BEEA-F454DEB3ED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2CF305-271E-41A6-A0EB-6E22BF190C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>lang_code</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>eng</t>
-  </si>
-  <si>
-    <t>KTA</t>
   </si>
   <si>
     <t>1/1/2019</t>
@@ -584,8 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -912,7 +908,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,253 +948,253 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>2000001</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
         <v>2000001</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45295</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
-        <v>45295</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
         <v>2000002</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
         <v>45292</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>2000003</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
         <v>45325</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
         <v>2000004</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
         <v>45413</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
         <v>2000005</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
         <v>45485</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
         <v>2000006</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1">
         <v>45541</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
         <v>2000007</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
         <v>45565</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
         <v>2000008</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
         <v>45647</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
         <v>2000009</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
         <v>45651</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
         <v>2000010</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
         <v>45554</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/loc_holiday.xlsx
+++ b/mosip_master/xlsx/loc_holiday.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2CF305-271E-41A6-A0EB-6E22BF190C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1911C8-EF48-4341-8FEF-A69A915BDC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
   <si>
     <t>lang_code</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>is_active</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>1/1/2019</t>
-  </si>
-  <si>
-    <t>New Year's Day</t>
-  </si>
-  <si>
-    <t>National Holiday</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -905,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,16 +934,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2000001</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
         <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45295</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -964,244 +952,218 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>2000001</v>
+        <v>2000002</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>2000002</v>
+        <v>2000003</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45325</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
-        <v>45292</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>2000003</v>
+        <v>2000004</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>45325</v>
+        <v>45413</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>2000004</v>
+        <v>2000005</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
-        <v>45413</v>
+        <v>45485</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>2000005</v>
+        <v>2000006</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>45485</v>
+        <v>45541</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>2000006</v>
+        <v>2000007</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
-        <v>45541</v>
+        <v>45565</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>2000007</v>
+        <v>2000008</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>45565</v>
+        <v>45647</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>2000008</v>
+        <v>2000009</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>45647</v>
+        <v>45651</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>2000009</v>
+        <v>2000010</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
-        <v>45651</v>
+        <v>45554</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>2000010</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45554</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
-    <sortCondition ref="D1"/>
-  </sortState>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
